--- a/biology/Botanique/Eucalyptus_diversicolor/Eucalyptus_diversicolor.xlsx
+++ b/biology/Botanique/Eucalyptus_diversicolor/Eucalyptus_diversicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le karri (Eucalyptus diversicolor) est une espèce d'Eucalyptus (famille des Myrtaceae) poussant dans les régions les plus humides du sud de l'Australie occidentale
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre peut atteindre 90 mètres de haut et c'est l'un des plus grands eucalyptus. Son écorce blanche ou crème quand elle est jeune devient marron en vieillissant et tombe. Lorsque l'arbre a perdu son écorce, la nouvelle écorce blanche va passer rapidement du blanc au gris et au marron foncé et c'est cette caractéristique qui explique son nom scientifique. Le tronc de l'arbre est un fût unique et l'on ne trouve des branches, chez un arbre adulte, que dans le dernier tiers du tronc.
 Les feuilles lancéolées sont vert foncé au-dessus, vert clair au-dessous et mesurent 9 à 12 cm de long sur 2 à 3 de large
@@ -545,7 +559,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre est majoritairement répandu dans les parties aux climats humides du sud ouest australien.
 Il est utilisé pour la dureté/solidité de son bois, et ses fleurs sont très appréciées des abeilles.
